--- a/K9HZ_Front_Panel_Boards/Front_Panel_Two_Boards_Stacked_V12.6/K9HZ_Front_Panel_Electronics_Board_V12.6/K9HZ_Front_Panel_Electronics_BOM_V012.6_11-15-23.xlsx
+++ b/K9HZ_Front_Panel_Boards/Front_Panel_Two_Boards_Stacked_V12.6/K9HZ_Front_Panel_Electronics_Board_V12.6/K9HZ_Front_Panel_Electronics_BOM_V012.6_11-15-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\T41\K9HZ Front Panel\Front Panel Electronics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_Front_Panel_Boards\Front_Panel_Two_Boards_Stacked_V12.6\K9HZ_Front_Panel_Electronics_Board_V12.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF381B8-E2C4-4CA2-A07B-23FFF0AD1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F89B05-B713-455B-A7B8-32F0FDA4650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB8FF529-D3E9-4D91-B4C9-BA8B32EACA68}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>C!, C2</t>
-  </si>
-  <si>
     <t>R1, R2,R3,R4</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>R5, R6</t>
   </si>
   <si>
-    <t>80-C0402C103K5RAC</t>
-  </si>
-  <si>
     <t>Mouser Part Number</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>Buss wire</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>C1206C104K5RACTU</t>
   </si>
 </sst>
 </file>
@@ -203,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,16 +502,16 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.7265625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -521,87 +521,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
+      <c r="B2" s="3">
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
+      <c r="B3" s="3">
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="3">
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -611,34 +611,34 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
@@ -648,37 +648,37 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
